--- a/sample/benchmarks/04_spring/data_sheet.xlsx
+++ b/sample/benchmarks/04_spring/data_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>Calculix</t>
     <phoneticPr fontId="1"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>**Did not finish in 1800 sec.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N/A**</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -233,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +279,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,7 +394,7 @@
                   <c:v>4022.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18029.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -497,13 +496,13 @@
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.4</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168.1</c:v>
+                  <c:v>35.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,11 +572,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="33882880"/>
-        <c:axId val="33884416"/>
+        <c:axId val="231422592"/>
+        <c:axId val="231436672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33882880"/>
+        <c:axId val="231422592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33884416"/>
+        <c:crossAx val="231436672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -595,10 +594,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33884416"/>
+        <c:axId val="231436672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -607,7 +606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33882880"/>
+        <c:crossAx val="231422592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,43 +820,8 @@
                   <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                 </a:br>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>*2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>  Did not finish in 15,000sec</a:t>
-                </a:r>
-                <a:br>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                </a:br>
-                <a:r>
                   <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-                  <a:t>*3  Failed to load result file</a:t>
+                  <a:t>*2  Failed to load result file</a:t>
                 </a:r>
                 <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               </a:p>
@@ -900,10 +864,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
                   <a:t>786.7</a:t>
                 </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -914,8 +882,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="11976846" y="6596340"/>
-                <a:ext cx="665631" cy="263899"/>
+                <a:off x="11900647" y="5005105"/>
+                <a:ext cx="997323" cy="284071"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -944,10 +912,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                  <a:t>(      )*2</a:t>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t> 18029.2   </a:t>
                 </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -958,7 +934,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="10161493" y="6338606"/>
+                <a:off x="10183905" y="5879164"/>
                 <a:ext cx="909919" cy="284071"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -988,10 +964,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
                   <a:t>(         )*1</a:t>
                 </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -1002,8 +978,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="12319745" y="5661771"/>
-                <a:ext cx="909919" cy="284071"/>
+                <a:off x="12308539" y="3824006"/>
+                <a:ext cx="802343" cy="277347"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -1032,10 +1008,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                  <a:t>(         )*3</a:t>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+                  <a:t>(          )*2</a:t>
                 </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -1102,10 +1078,10 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
               <a:t>4022.5</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1404,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1541,26 +1517,26 @@
         <v>2</v>
       </c>
       <c r="F5" s="15">
-        <v>18</v>
+        <v>3.8</v>
       </c>
       <c r="G5" s="15">
-        <v>21.4</v>
+        <v>7.1</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>3.3999999999999986</v>
+        <v>3.3</v>
       </c>
       <c r="I5" s="8">
         <v>153.52000000000001</v>
       </c>
       <c r="J5" s="5">
-        <v>489</v>
+        <v>27</v>
       </c>
       <c r="K5" s="4">
-        <v>9.3933229999999996E-4</v>
+        <v>8.3009289999999998E-7</v>
       </c>
       <c r="L5" s="3">
-        <v>1E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
@@ -1679,26 +1655,26 @@
         <v>5.7</v>
       </c>
       <c r="F9" s="15">
-        <v>58.4</v>
+        <v>10.5</v>
       </c>
       <c r="G9" s="15">
-        <v>68.8</v>
+        <v>20.6</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>10.399999999999999</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="I9" s="8">
         <v>172.78</v>
       </c>
       <c r="J9" s="5">
-        <v>496</v>
+        <v>27</v>
       </c>
       <c r="K9" s="4">
-        <v>9.604441E-4</v>
+        <v>6.9479250000000001E-7</v>
       </c>
       <c r="L9" s="3">
-        <v>1E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
@@ -1748,26 +1724,26 @@
       <c r="E11" s="15">
         <v>11.1</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>17</v>
+      <c r="F11" s="15">
+        <v>18029.2</v>
+      </c>
+      <c r="G11" s="15">
+        <v>18091.400000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <v>62.2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>213.21</v>
+      </c>
+      <c r="J11" s="11">
+        <v>56535</v>
+      </c>
+      <c r="K11" s="4">
+        <v>9.8700000000000004E-7</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1.06E-6</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
@@ -1812,29 +1788,29 @@
         <v>10</v>
       </c>
       <c r="E13" s="15">
-        <v>18.600000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="F13" s="15">
-        <v>168.1</v>
+        <v>35.9</v>
       </c>
       <c r="G13" s="15">
-        <v>189.2</v>
+        <v>57.1</v>
       </c>
       <c r="H13" s="6">
         <f>G13-F13</f>
-        <v>21.099999999999994</v>
+        <v>21.200000000000003</v>
       </c>
       <c r="I13" s="8">
         <v>213.24</v>
       </c>
       <c r="J13" s="5">
-        <v>395</v>
-      </c>
-      <c r="K13" s="3">
-        <v>9.4115910000000004E-4</v>
+        <v>26</v>
+      </c>
+      <c r="K13" s="4">
+        <v>4.9106220000000004E-7</v>
       </c>
       <c r="L13" s="3">
-        <v>1E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
@@ -1872,7 +1848,14 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="11"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
@@ -1897,10 +1880,10 @@
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>30</v>
@@ -1919,8 +1902,8 @@
       <c r="G20" s="15">
         <v>4022.5</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>32</v>
+      <c r="H20" s="15">
+        <v>18029.2</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.15">
@@ -1948,13 +1931,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="15">
-        <v>18</v>
+        <v>3.8</v>
       </c>
       <c r="G22" s="15">
-        <v>58.4</v>
+        <v>10.5</v>
       </c>
       <c r="H22" s="15">
-        <v>168.1</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.15">
@@ -2005,9 +1988,9 @@
         <f>E7+G7</f>
         <v>4055.1000000000004</v>
       </c>
-      <c r="H27" s="10" t="e">
+      <c r="H27" s="10">
         <f>E11+G11</f>
-        <v>#VALUE!</v>
+        <v>18102.5</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.15">
@@ -2039,15 +2022,15 @@
       </c>
       <c r="F29" s="6">
         <f t="shared" si="3"/>
-        <v>23.4</v>
+        <v>9.1</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="4"/>
-        <v>74.5</v>
+        <v>26.3</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" si="5"/>
-        <v>207.79999999999998</v>
+        <v>76.400000000000006</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.15">
